--- a/0056成份股季調整生效日期.xlsx
+++ b/0056成份股季調整生效日期.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,12 +54,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -90,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -101,11 +95,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -421,9 +412,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="26.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -446,7 +437,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="1">
         <v>43087</v>
       </c>
@@ -466,7 +457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="1">
         <v>43269</v>
       </c>
@@ -486,7 +477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="1">
         <v>43456</v>
       </c>
@@ -506,7 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
       <c r="A9" s="1">
         <v>43640</v>
       </c>
@@ -531,139 +522,139 @@
         <v>43822</v>
       </c>
       <c r="B11" s="1">
+        <v>43912</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
+      <c r="A12" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B12" s="1">
         <v>44001</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1">
-        <v>44004</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44096</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B13" s="1">
         <v>44096</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44183</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
       <c r="A14" s="1">
-        <v>44186</v>
+        <v>44096</v>
       </c>
       <c r="B14" s="1">
-        <v>44274</v>
+        <v>44183</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="1">
-        <v>44277</v>
+        <v>44186</v>
       </c>
       <c r="B15" s="1">
-        <v>44365</v>
+        <v>44274</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
       <c r="A16" s="1">
-        <v>44368</v>
+        <v>44277</v>
       </c>
       <c r="B16" s="1">
-        <v>44456</v>
+        <v>44365</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
       <c r="A17" s="1">
-        <v>44461</v>
+        <v>44368</v>
       </c>
       <c r="B17" s="1">
-        <v>44547</v>
+        <v>44456</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
       <c r="A18" s="1">
-        <v>44550</v>
+        <v>44461</v>
       </c>
       <c r="B18" s="1">
-        <v>44638</v>
+        <v>44547</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
       <c r="A19" s="1">
-        <v>44641</v>
+        <v>44550</v>
       </c>
       <c r="B19" s="1">
-        <v>44729</v>
+        <v>44638</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75">
       <c r="A20" s="1">
-        <v>44732</v>
+        <v>44641</v>
       </c>
       <c r="B20" s="1">
-        <v>44820</v>
+        <v>44729</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75">
       <c r="A21" s="1">
-        <v>44823</v>
+        <v>44732</v>
       </c>
       <c r="B21" s="1">
-        <v>44911</v>
+        <v>44820</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75">
       <c r="A22" s="1">
-        <v>44914</v>
+        <v>44823</v>
       </c>
       <c r="B22" s="1">
-        <v>45002</v>
+        <v>44911</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21.75">
       <c r="A23" s="1">
-        <v>45005</v>
+        <v>44914</v>
       </c>
       <c r="B23" s="1">
-        <v>45093</v>
+        <v>45002</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21.75">
       <c r="A24" s="1">
-        <v>45096</v>
+        <v>45005</v>
       </c>
       <c r="B24" s="1">
-        <v>45184</v>
+        <v>45093</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21.75">
       <c r="A25" s="1">
-        <v>45187</v>
+        <v>45096</v>
       </c>
       <c r="B25" s="1">
-        <v>45275</v>
+        <v>45184</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21.75">
       <c r="A26" s="1">
-        <v>45278</v>
+        <v>45187</v>
       </c>
       <c r="B26" s="1">
         <v>45289</v>
@@ -673,8 +664,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="3"/>
     </row>
   </sheetData>
